--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-07-20</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -638,46 +638,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Donovan Gamboa</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>92020483</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Aomdonm</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-05-28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$500</t>
+          <t>$3920</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Scooby</t>
+          <t>Ansoansoansaonason</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>J8008</t>
+          <t>J99999</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,37 +488,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alice Smith</t>
+          <t>Bob Johnson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>555-5678</t>
+          <t>555-8765</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>456 Maple Avenue, Springfield</t>
+          <t>789 Oak Street, Springfield</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$200.00</t>
+          <t>$350.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Urgent job completed ahead of schedule. No issues reported.</t>
+          <t>Job had some delays due to supply chain issues. Extra charges applied.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -527,48 +527,48 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Not Done</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-01-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bob Johnson</t>
+          <t>Carol White</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>555-8765</t>
+          <t>555-4321</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>789 Oak Street, Springfield</t>
+          <t>321 Pine Lane, Springfield</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$350.00</t>
+          <t>$175.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Job had some delays due to supply chain issues. Extra charges applied.</t>
+          <t>Completed on time. Minor adjustments requested post-delivery.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -577,48 +577,48 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Not Done</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carol White</t>
+          <t>David Brown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>555-4321</t>
+          <t>555-1234</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>321 Pine Lane, Springfield</t>
+          <t>654 Birch Boulevard, Springfield</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$175.00</t>
+          <t>$400.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Completed on time. Minor adjustments requested post-delivery.</t>
+          <t>Quality assurance passed with no issues.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -627,59 +627,605 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Not Done</t>
+          <t>Done</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Eve Black</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>92020483</t>
+          <t>555-6789</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Aomdonm</t>
+          <t>987 Cedar Circle, Springfield</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-05-26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$3920</t>
+          <t>$225.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ansoansoansaonason</t>
+          <t>Customer requested an additional feature, causing a delay.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>J99999</t>
+          <t>J0005</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>Not Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frank Green</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>555-2468</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>123 Aspen Drive, Springfield</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>$300.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Job completed smoothly without any problems.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>J0006</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>58</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grace Blue</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>555-1357</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>246 Elm Court, Springfield</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>$250.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Some rework needed, but job finished on time.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>J0007</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>183</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Not Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hank Pink</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>555-9876</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>369 Willow Way, Springfield</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>$375.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Customer was very satisfied with the outcome.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>J0008</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>118</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Not Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ivy Red</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>555-6543</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>753 Cherry Road, Springfield</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-02-24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>$500.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Minor issues detected, quickly resolved.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>J0009</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>164</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Not Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jack Gold</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>555-3210</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>951 Spruce Street, Springfield</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>$275.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Job was delayed due to inclement weather.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>J0010</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>105</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-03-03</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Kelly Silver</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>555-2468</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>357 Poplar Place, Springfield</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-04-15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>$320.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Client requested early delivery, accommodated successfully.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>J0011</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>113</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Not Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Leo Copper</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>555-7531</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>159 Fir Terrace, Springfield</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>$340.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Job went as planned, no deviations.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>J0012</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>131</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mona Bronze</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>555-3698</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>753 Redwood Row, Springfield</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>$360.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Slight delay due to material shortage.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>J0013</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>18</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Not Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nina Violet</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>555-1597</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>159 Cypress Crescent, Springfield</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>$380.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Finished ahead of schedule, no problems.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>J0014</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>186</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-06-08</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oscar Crimson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>555-7530</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>753 Alder Alley, Springfield</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>$400.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Customer provided positive feedback, no issues.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>J0015</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>155</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Don</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>911</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>362863</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>J999</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Not Done</t>
         </is>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -527,11 +527,11 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Not Done</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
